--- a/Jogos_do_Dia/2023-01-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.45</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="N2" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -763,10 +763,10 @@
         <v>3.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.74</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF4" t="n">
         <v>1.32</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
@@ -986,7 +986,7 @@
         <v>1.95</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1034,7 +1034,7 @@
         <v>1.91</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" t="n">
         <v>1.26</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="N6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.41</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1206,7 +1206,7 @@
         <v>1.67</v>
       </c>
       <c r="N7" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.87</v>
       </c>
       <c r="M8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>3.56</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.79</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.97</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1465,13 +1465,13 @@
         <v>3.06</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD9" t="n">
         <v>1.2</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>4.49</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1575,13 +1575,13 @@
         <v>3.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.29</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1685,13 +1685,13 @@
         <v>3.72</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AD11" t="n">
         <v>1.25</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.95</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.09</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.61</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -1795,13 +1795,13 @@
         <v>3.02</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD12" t="n">
         <v>1.26</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="H13" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
         <v>1.04</v>
@@ -1863,10 +1863,10 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
@@ -1905,13 +1905,13 @@
         <v>2.84</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AD13" t="n">
         <v>1.25</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
         <v>1.04</v>
@@ -1973,10 +1973,10 @@
         <v>3.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="N14" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
         <v>1.32</v>
@@ -2015,13 +2015,13 @@
         <v>3.26</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AD14" t="n">
         <v>1.27</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="I15" t="n">
         <v>1.09</v>
@@ -2083,10 +2083,10 @@
         <v>2.8</v>
       </c>
       <c r="M15" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2193,10 +2193,10 @@
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
         <v>1.11</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2505,10 +2505,10 @@
         <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.71</v>
       </c>
       <c r="I19" t="n">
         <v>1.02</v>
@@ -2523,10 +2523,10 @@
         <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="O19" t="n">
         <v>1.35</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.1</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="H21" t="n">
-        <v>4.35</v>
+        <v>3.57</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,7 +2743,7 @@
         <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="N21" t="n">
         <v>1.71</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="I22" t="n">
         <v>1.11</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.04</v>
       </c>
       <c r="I23" t="n">
         <v>1.1</v>
@@ -3052,37 +3052,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.83</v>
@@ -3091,13 +3091,13 @@
         <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
         <v>2.25</v>
@@ -3115,28 +3115,28 @@
         <v>3.36</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.45</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
         <v>1.09</v>
@@ -3183,10 +3183,10 @@
         <v>2.8</v>
       </c>
       <c r="M25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N25" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="O25" t="n">
         <v>1.49</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="N26" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="G27" t="n">
         <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.02</v>
@@ -3403,10 +3403,10 @@
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.65</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="N28" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
         <v>1.04</v>
@@ -3623,10 +3623,10 @@
         <v>3.8</v>
       </c>
       <c r="M29" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="I30" t="n">
         <v>1.04</v>
@@ -3733,10 +3733,10 @@
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="I31" t="n">
         <v>1.03</v>
@@ -3843,10 +3843,10 @@
         <v>4.2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N31" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
         <v>1.04</v>
@@ -3953,10 +3953,10 @@
         <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N32" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="I33" t="n">
         <v>1.03</v>
@@ -4063,10 +4063,10 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
@@ -4173,7 +4173,7 @@
         <v>3.25</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N34" t="n">
         <v>1.74</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="I35" t="n">
         <v>1.03</v>
@@ -4283,10 +4283,10 @@
         <v>3.3</v>
       </c>
       <c r="M35" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>1.05</v>
@@ -4393,10 +4393,10 @@
         <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="N36" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4503,10 +4503,10 @@
         <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="N37" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="G38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="I38" t="n">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="N38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.35</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.25</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,10 +4723,10 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="N39" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="O39" t="n">
         <v>1.34</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>3.6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O40" t="n">
         <v>1.35</v>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="G41" t="n">
         <v>3.3</v>
@@ -4943,10 +4943,10 @@
         <v>3.3</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="N41" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="O41" t="n">
         <v>1.39</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.01</v>
@@ -5053,10 +5053,10 @@
         <v>3.9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="N42" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="O42" t="n">
         <v>1.32</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="N43" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>5.25</v>
+        <v>4.7</v>
       </c>
       <c r="I44" t="n">
         <v>1.03</v>
@@ -5273,10 +5273,10 @@
         <v>4.64</v>
       </c>
       <c r="M44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O44" t="n">
         <v>1.28</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="G45" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="I45" t="n">
         <v>1.08</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="G47" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
         <v>1.1</v>
@@ -5603,10 +5603,10 @@
         <v>2.4</v>
       </c>
       <c r="M47" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O47" t="n">
         <v>1.52</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4.32</v>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="H48" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
         <v>1.06</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="H49" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I49" t="n">
         <v>1.08</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G50" t="n">
-        <v>3.75</v>
+        <v>3.86</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>4.82</v>
       </c>
       <c r="I50" t="n">
         <v>1.05</v>
@@ -5933,10 +5933,10 @@
         <v>3.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="N50" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="O50" t="n">
         <v>1.37</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="I51" t="n">
         <v>1.07</v>
@@ -6135,10 +6135,10 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H52" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="I52" t="n">
         <v>1.08</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I54" t="n">
         <v>1.07</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="I55" t="n">
         <v>1.06</v>
@@ -6483,7 +6483,7 @@
         <v>3.2</v>
       </c>
       <c r="M55" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N55" t="n">
         <v>1.75</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="I56" t="n">
         <v>1.08</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I57" t="n">
         <v>1.1</v>
@@ -6703,10 +6703,10 @@
         <v>2.75</v>
       </c>
       <c r="M57" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="N57" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="O57" t="n">
         <v>1.52</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I58" t="n">
         <v>1.07</v>
@@ -6813,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="N58" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O58" t="n">
         <v>1.45</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I59" t="n">
         <v>1.06</v>
@@ -6923,10 +6923,10 @@
         <v>3.4</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N59" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O59" t="n">
         <v>1.39</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="G60" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="H60" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="I60" t="n">
         <v>1.09</v>
@@ -7033,10 +7033,10 @@
         <v>2.75</v>
       </c>
       <c r="M60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N60" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="O60" t="n">
         <v>1.51</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.35</v>
+        <v>2.41</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="I61" t="n">
         <v>1.06</v>
@@ -7143,7 +7143,7 @@
         <v>3.25</v>
       </c>
       <c r="M61" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="N61" t="n">
         <v>1.7</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I62" t="n">
         <v>1.07</v>
@@ -7253,10 +7253,10 @@
         <v>3.1</v>
       </c>
       <c r="M62" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N62" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O62" t="n">
         <v>1.42</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G63" t="n">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I63" t="n">
         <v>1.04</v>
@@ -7363,10 +7363,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="N63" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="I64" t="n">
         <v>1.08</v>
@@ -7473,10 +7473,10 @@
         <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="N64" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="O64" t="n">
         <v>1.46</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G65" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="I65" t="n">
         <v>1.1</v>
@@ -7577,16 +7577,16 @@
         <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L65" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="M65" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="N65" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="O65" t="n">
         <v>1.58</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.63</v>
+        <v>2.31</v>
       </c>
       <c r="G66" t="n">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="H66" t="n">
-        <v>2.8</v>
+        <v>3.27</v>
       </c>
       <c r="I66" t="n">
         <v>1.08</v>
@@ -7693,10 +7693,10 @@
         <v>3.15</v>
       </c>
       <c r="M66" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="N66" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="O66" t="n">
         <v>1.44</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G67" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="H67" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="I67" t="n">
         <v>1.05</v>
@@ -7803,10 +7803,10 @@
         <v>3.93</v>
       </c>
       <c r="M67" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="N67" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G68" t="n">
         <v>3.05</v>
       </c>
-      <c r="G68" t="n">
-        <v>3.55</v>
-      </c>
       <c r="H68" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="I68" t="n">
         <v>1.06</v>
@@ -7913,10 +7913,10 @@
         <v>3.43</v>
       </c>
       <c r="M68" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O68" t="n">
         <v>1.4</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="G69" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I69" t="n">
         <v>1.06</v>
@@ -8023,10 +8023,10 @@
         <v>3.4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="N69" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="G70" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="H70" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="I70" t="n">
         <v>1.09</v>
@@ -8196,7 +8196,7 @@
         <v>3.6</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="71">
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="G71" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="H71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
         <v>1.13</v>
@@ -8240,7 +8240,7 @@
         <v>1.62</v>
       </c>
       <c r="L71" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="M71" t="n">
         <v>2.67</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G72" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H72" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="I72" t="n">
         <v>1.1</v>
@@ -8353,10 +8353,10 @@
         <v>2.5</v>
       </c>
       <c r="M72" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="N72" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="O72" t="n">
         <v>1.51</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="I73" t="n">
         <v>1.07</v>
@@ -8463,10 +8463,10 @@
         <v>3.1</v>
       </c>
       <c r="M73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N73" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O73" t="n">
         <v>1.44</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H74" t="n">
         <v>2.8</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2.75</v>
       </c>
       <c r="I74" t="n">
         <v>1.11</v>
@@ -8573,10 +8573,10 @@
         <v>2.65</v>
       </c>
       <c r="M74" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N74" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O74" t="n">
         <v>1.54</v>
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="I76" t="n">
         <v>1.03</v>
@@ -8793,10 +8793,10 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O76" t="n">
         <v>1.36</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G77" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
         <v>1.02</v>
@@ -8903,10 +8903,10 @@
         <v>3.34</v>
       </c>
       <c r="M77" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="N77" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="O77" t="n">
         <v>1.39</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>3.57</v>
       </c>
       <c r="H78" t="n">
-        <v>4.9</v>
+        <v>4.74</v>
       </c>
       <c r="I78" t="n">
         <v>1.01</v>
@@ -9013,10 +9013,10 @@
         <v>3.48</v>
       </c>
       <c r="M78" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="N78" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="O78" t="n">
         <v>1.37</v>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G79" t="n">
-        <v>4.6</v>
+        <v>4.07</v>
       </c>
       <c r="H79" t="n">
-        <v>6.5</v>
+        <v>5.37</v>
       </c>
       <c r="I79" t="n">
         <v>1.04</v>
@@ -9212,52 +9212,52 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K80" t="n">
         <v>1.13</v>
       </c>
-      <c r="G80" t="n">
-        <v>8</v>
-      </c>
-      <c r="H80" t="n">
-        <v>21</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="N80" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R80" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V80" t="n">
         <v>3</v>
@@ -9275,28 +9275,28 @@
         <v>3.64</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G81" t="n">
         <v>3.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
         <v>1.02</v>
@@ -9346,7 +9346,7 @@
         <v>1.7</v>
       </c>
       <c r="N81" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O81" t="n">
         <v>1.33</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="I82" t="n">
         <v>1.01</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I83" t="n">
         <v>1.04</v>
@@ -9563,10 +9563,10 @@
         <v>3.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="N83" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="O83" t="n">
         <v>1.33</v>
@@ -9614,7 +9614,7 @@
         <v>3.1</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE83" t="n">
         <v>1.24</v>
@@ -9652,13 +9652,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
-        <v>2.6</v>
+        <v>1.99</v>
       </c>
       <c r="I84" t="n">
         <v>1.04</v>
@@ -9676,7 +9676,7 @@
         <v>1.74</v>
       </c>
       <c r="N84" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="O84" t="n">
         <v>1.34</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="G85" t="n">
-        <v>3.64</v>
+        <v>3.27</v>
       </c>
       <c r="H85" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="I85" t="n">
         <v>1.04</v>
@@ -9872,19 +9872,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G86" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="H86" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K86" t="n">
         <v>1.1</v>
@@ -9893,10 +9893,10 @@
         <v>6.8</v>
       </c>
       <c r="M86" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="N86" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>3.23</v>
       </c>
       <c r="H87" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="I87" t="n">
         <v>1.04</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="G88" t="n">
-        <v>3.44</v>
+        <v>3.01</v>
       </c>
       <c r="H88" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="I88" t="n">
         <v>1.05</v>
@@ -10113,10 +10113,10 @@
         <v>3.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="N88" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="O88" t="n">
         <v>1.36</v>
@@ -10202,13 +10202,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="G89" t="n">
-        <v>3.54</v>
+        <v>3.09</v>
       </c>
       <c r="H89" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="I89" t="n">
         <v>1.04</v>
@@ -10223,10 +10223,10 @@
         <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N89" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O89" t="n">
         <v>1.3</v>
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="I91" t="n">
         <v>1.07</v>
@@ -10443,10 +10443,10 @@
         <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="N91" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O91" t="n">
         <v>1.46</v>
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="I92" t="n">
         <v>1.02</v>
@@ -10553,10 +10553,10 @@
         <v>4.75</v>
       </c>
       <c r="M92" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N92" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
@@ -10642,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="G93" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="I93" t="n">
         <v>1.04</v>
@@ -10663,10 +10663,10 @@
         <v>3.75</v>
       </c>
       <c r="M93" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N93" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O93" t="n">
         <v>1.36</v>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H94" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="I94" t="n">
         <v>1.05</v>
@@ -10773,10 +10773,10 @@
         <v>3.2</v>
       </c>
       <c r="M94" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="N94" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O94" t="n">
         <v>1.44</v>
@@ -10865,10 +10865,10 @@
         <v>1.8</v>
       </c>
       <c r="G95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4.15</v>
       </c>
       <c r="I95" t="n">
         <v>1.04</v>
@@ -10883,10 +10883,10 @@
         <v>3.32</v>
       </c>
       <c r="M95" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="N95" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O95" t="n">
         <v>1.4</v>
@@ -10934,7 +10934,7 @@
         <v>4.75</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE95" t="n">
         <v>1.3</v>
@@ -10972,13 +10972,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>2.89</v>
       </c>
       <c r="H96" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="I96" t="n">
         <v>1.03</v>
@@ -11082,13 +11082,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H97" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="I97" t="n">
         <v>1.02</v>
@@ -11103,10 +11103,10 @@
         <v>4.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="N97" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="O97" t="n">
         <v>1.29</v>
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G98" t="n">
-        <v>4.35</v>
+        <v>3.63</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="I98" t="n">
         <v>1.05</v>
@@ -11213,10 +11213,10 @@
         <v>3.4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -11276,7 +11276,7 @@
         <v>2.9</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="99">
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="G99" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="H99" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I99" t="n">
         <v>1.01</v>
@@ -11412,13 +11412,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="G100" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="H100" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="I100" t="n">
         <v>1.04</v>
@@ -11433,10 +11433,10 @@
         <v>3.32</v>
       </c>
       <c r="M100" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="N100" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="O100" t="n">
         <v>1.4</v>
@@ -11522,13 +11522,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G101" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I101" t="n">
         <v>1.03</v>
@@ -11543,10 +11543,10 @@
         <v>3.9</v>
       </c>
       <c r="M101" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -11632,13 +11632,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4.3</v>
+        <v>3.93</v>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>3.74</v>
       </c>
       <c r="H102" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="I102" t="n">
         <v>1.01</v>
@@ -11742,10 +11742,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>1.91</v>
@@ -11814,7 +11814,7 @@
         <v>1.69</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE103" t="n">
         <v>1.4</v>
@@ -11852,13 +11852,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="G104" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="I104" t="n">
         <v>1.03</v>
@@ -11873,10 +11873,10 @@
         <v>4.58</v>
       </c>
       <c r="M104" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="N104" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O104" t="n">
         <v>1.3</v>
@@ -11924,7 +11924,7 @@
         <v>4.7</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE104" t="n">
         <v>1.38</v>
@@ -11962,13 +11962,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G105" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="H105" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I105" t="n">
         <v>1.06</v>
@@ -11983,10 +11983,10 @@
         <v>3.1</v>
       </c>
       <c r="M105" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="N105" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="O105" t="n">
         <v>1.44</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="I106" t="n">
         <v>1.04</v>
@@ -12093,10 +12093,10 @@
         <v>3.89</v>
       </c>
       <c r="M106" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="N106" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -12182,13 +12182,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="G107" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="H107" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="I107" t="n">
         <v>1.13</v>
@@ -12203,10 +12203,10 @@
         <v>2.3</v>
       </c>
       <c r="M107" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="N107" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="O107" t="n">
         <v>1.61</v>
@@ -12292,13 +12292,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H108" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="I108" t="n">
         <v>1.06</v>
@@ -12313,10 +12313,10 @@
         <v>3.2</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N108" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="O108" t="n">
         <v>1.44</v>
@@ -12402,13 +12402,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G109" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H109" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I109" t="n">
         <v>1.02</v>
@@ -12423,10 +12423,10 @@
         <v>4.33</v>
       </c>
       <c r="M109" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="N109" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="O109" t="n">
         <v>1.33</v>
@@ -12512,13 +12512,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G110" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="H110" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="I110" t="n">
         <v>1.04</v>
@@ -12536,7 +12536,7 @@
         <v>1.8</v>
       </c>
       <c r="N110" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O110" t="n">
         <v>1.36</v>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G111" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
-        <v>3.44</v>
+        <v>3.7</v>
       </c>
       <c r="I111" t="n">
         <v>1.05</v>
@@ -12643,10 +12643,10 @@
         <v>3.4</v>
       </c>
       <c r="M111" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="N111" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O111" t="n">
         <v>1.4</v>
